--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2640326.55041353</v>
+        <v>2658701.239879652</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9276347.109037263</v>
+        <v>9276347.109037261</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>241.7627700121621</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>54.47555601903363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>36.28779755549684</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.92708396620965</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>34.3703720669681</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>307.9222910483167</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.82584874159772</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>46.80807769362171</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>8.484104051245758</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>238.2336684417053</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.3419076393841</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274087</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>115.5269768002162</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>170.4824349897576</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113178</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.4898845065105</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V19" t="n">
-        <v>146.1854691670921</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="20">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7.496242627250657</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231516</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520949</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.562624396423089</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>43.38343087627774</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.27683016996313</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>12.78917898910507</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>134.2569834509614</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>220.0883375064756</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.2940295350197</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>73.21532344290732</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>29.68912126462539</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065121</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849749</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.6725273523255</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14.73664328357096</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1606.946621408918</v>
+        <v>1288.509552617345</v>
       </c>
       <c r="C5" t="n">
-        <v>1237.984104468507</v>
+        <v>919.5470356769335</v>
       </c>
       <c r="D5" t="n">
-        <v>879.7184058617563</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>493.9301532635121</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>82.94424847390451</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>69.02084441249541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>69.02084441249541</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>1675.109392681467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1993.54646147304</v>
+        <v>1675.109392681467</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>693.4114366640424</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>693.4114366640424</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.2378263186104</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.95295430729</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>764.6872557005397</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>378.8990031022955</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2661.971466026711</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548715</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287635</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572651</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C10" t="n">
-        <v>381.6292235663332</v>
+        <v>680.848097647221</v>
       </c>
       <c r="D10" t="n">
-        <v>231.5125841539974</v>
+        <v>530.7314582348853</v>
       </c>
       <c r="E10" t="n">
-        <v>231.5125841539974</v>
+        <v>382.8183646524922</v>
       </c>
       <c r="F10" t="n">
-        <v>231.5125841539974</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G10" t="n">
-        <v>62.51278389232985</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471132</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974661</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980058</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>1258.276201424861</v>
       </c>
       <c r="V13" t="n">
-        <v>1387.841167119728</v>
+        <v>1003.591713218974</v>
       </c>
       <c r="W13" t="n">
-        <v>1387.841167119728</v>
+        <v>714.1745431820131</v>
       </c>
       <c r="X13" t="n">
-        <v>1387.841167119728</v>
+        <v>486.1849922839956</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>265.3924131404654</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2811958984813</v>
+        <v>213.9110074201002</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201002</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201002</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S16" t="n">
-        <v>1326.711790770268</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T16" t="n">
-        <v>1326.711790770268</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U16" t="n">
-        <v>1326.711790770268</v>
+        <v>986.0022165609654</v>
       </c>
       <c r="V16" t="n">
-        <v>1326.711790770268</v>
+        <v>731.3177283550784</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.711790770268</v>
+        <v>441.9005583181177</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.722239872251</v>
+        <v>213.9110074201002</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.929660728721</v>
+        <v>213.9110074201002</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771459</v>
       </c>
       <c r="V19" t="n">
-        <v>527.3450129705744</v>
+        <v>955.1031435655725</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>665.6859735286118</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>437.6964226305944</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>216.9038434870642</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3803.838860774509</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="C22" t="n">
-        <v>3634.902677846602</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="D22" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="E22" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="F22" t="n">
-        <v>3627.330715596854</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380588</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625199</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636328</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403511</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U22" t="n">
-        <v>4347.940519017357</v>
+        <v>4633.687647031313</v>
       </c>
       <c r="V22" t="n">
-        <v>4093.25603081147</v>
+        <v>4379.003158825426</v>
       </c>
       <c r="W22" t="n">
-        <v>3803.838860774509</v>
+        <v>4089.585988788465</v>
       </c>
       <c r="X22" t="n">
-        <v>3803.838860774509</v>
+        <v>3861.596437890448</v>
       </c>
       <c r="Y22" t="n">
-        <v>3803.838860774509</v>
+        <v>3640.803858746918</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5984,16 +5984,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380588</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625199</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636328</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403511</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4744.16065705448</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>4520.375241843985</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>4231.246603057543</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>3976.562114851656</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>3687.144944814695</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>3459.155393916678</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916678</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6248,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>973.0255547109413</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C28" t="n">
-        <v>804.0893717830344</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>653.9727323706986</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>506.0596387883055</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1444.091189578142</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1444.091189578142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1444.091189578142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1444.091189578142</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>1444.091189578142</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>1154.674019541181</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X28" t="n">
-        <v>1154.674019541181</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="Y28" t="n">
-        <v>1154.674019541181</v>
+        <v>754.8946022306075</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6637,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>428.9821957028613</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y31" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6716,19 +6716,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>3569.372800808167</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.7466045204288</v>
+        <v>4212.152432888298</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>4043.216249960391</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>3893.099610548055</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>3745.186516965662</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>3745.186516965662</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="X34" t="n">
-        <v>987.1876484941987</v>
+        <v>4432.945012031828</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.3950693506686</v>
+        <v>4212.152432888298</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,25 +6923,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,34 +6950,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>406.8543143225561</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.9181313946492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.9181313946492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.9181313946492</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.9181313946492</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7111,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.886294955175</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>809.295358296326</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>588.5027791527958</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>1396.107276203138</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4037.196409009357</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C40" t="n">
-        <v>4037.196409009357</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D40" t="n">
-        <v>4037.196409009357</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E40" t="n">
-        <v>3889.283315426963</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.85945949167</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U40" t="n">
-        <v>4549.85945949167</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V40" t="n">
-        <v>4295.174971285784</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W40" t="n">
-        <v>4265.185959907374</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X40" t="n">
-        <v>4037.196409009357</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y40" t="n">
-        <v>4037.196409009357</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7406,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,31 +7424,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7585,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="44">
@@ -7643,16 +7643,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,16 +7661,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4352.721170395453</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>4183.784987467546</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>4033.66834805521</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>3885.755254472817</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3738.865306974907</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4758.155050436186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>4758.155050436186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>4534.369635225692</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>4534.369635225692</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>4534.369635225692</v>
+        <v>1484.03077229167</v>
       </c>
       <c r="W46" t="n">
-        <v>4534.369635225692</v>
+        <v>1194.613602254709</v>
       </c>
       <c r="X46" t="n">
-        <v>4534.369635225692</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>4534.369635225692</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747064</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,7 +8699,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>360.5026862907256</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714817</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627438</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>124.3400780863216</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M39" t="n">
-        <v>169.2863157167185</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>62.79465928983126</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>234.4116509503166</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819374</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>48.00368395687212</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.2427457127107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635308</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>27.4383749938456</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542692</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>105.9521741567359</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D22" t="n">
-        <v>141.1192303909617</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>61.34209567542587</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871803</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>136.4485493056596</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.68752223382965</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,7 +24658,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24886,7 +24886,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>212.9204763999321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644289</v>
       </c>
     </row>
     <row r="32">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.23658501241621</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -25135,10 +25135,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>5.621317882561556</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>27.19953892835792</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25360,22 +25360,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>124.7054865406959</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271322</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>256.8338770719656</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542518</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25840,10 +25840,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.291825051467313</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>237.401000040257</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502587</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.4183502588</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.4183502592</v>
+        <v>791022.418350259</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26314,25 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448199</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448193</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934484</v>
@@ -26344,16 +26344,16 @@
         <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="O2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.002665031701325e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230214</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230221</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230221</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230229</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029917</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213538.6841184025</v>
+        <v>-211010.3629549602</v>
       </c>
       <c r="C6" t="n">
-        <v>376429.1950961418</v>
+        <v>378957.5162595842</v>
       </c>
       <c r="D6" t="n">
-        <v>376429.1950961413</v>
+        <v>378957.5162595842</v>
       </c>
       <c r="E6" t="n">
-        <v>-42390.68462246345</v>
+        <v>-40355.86538446625</v>
       </c>
       <c r="F6" t="n">
-        <v>482769.3518544327</v>
+        <v>484804.17109243</v>
       </c>
       <c r="G6" t="n">
-        <v>482769.3518544324</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="H6" t="n">
-        <v>482769.3518544325</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="I6" t="n">
-        <v>482769.351854433</v>
+        <v>484804.1710924295</v>
       </c>
       <c r="J6" t="n">
-        <v>306346.1326618395</v>
+        <v>308380.9518998367</v>
       </c>
       <c r="K6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924297</v>
       </c>
       <c r="L6" t="n">
-        <v>482769.3518544328</v>
+        <v>484804.1710924298</v>
       </c>
       <c r="M6" t="n">
-        <v>347968.3366205955</v>
+        <v>350003.1558585922</v>
       </c>
       <c r="N6" t="n">
-        <v>482769.3518544324</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="O6" t="n">
-        <v>482769.3518544327</v>
+        <v>484804.1710924296</v>
       </c>
       <c r="P6" t="n">
-        <v>482769.3518544326</v>
+        <v>484804.1710924296</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26793,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>112.9202716085209</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>69.33174441270474</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>26.02192683660462</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>94.13991699917872</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>318.3952440651861</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>137.0042322786516</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>177.7751668830508</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>98.95375469339473</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27907,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>216.3983187666916</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>120.4387434050061</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>147.6867847905494</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770699</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,7 +35504,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789664</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>516.7753531914243</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>670.9270633411919</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556542</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187465</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951457</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367879</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M39" t="n">
-        <v>479.7106927671848</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>345.1583615309394</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>483.6693559063409</v>
+        <v>537.666887533699</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
@@ -38111,7 +38111,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2658701.239879652</v>
+        <v>2734230.909544456</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9276347.109037261</v>
+        <v>9276347.109037263</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>398.5094627624085</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>82.59957183215651</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8100533453327</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>36.28779755549684</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>380.4177241578217</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>34.3703720669681</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>99.66075074687581</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>34.82584874159772</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>95.60231281716786</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>46.80807769362171</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>79.25611486829266</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>238.2336684417053</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>66.99298184785548</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274087</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>115.5269768002162</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>59.01585011841158</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274086</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.4898845065105</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>152.6276470398224</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>224.8952567231516</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>22.12658519496617</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396423089</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>31.75070292883429</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.38343087627774</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>190.7955476484036</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>132.8160800741275</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>134.2569834509614</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>261.541033902277</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.2940295350197</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.1706059301398</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>98.17677184786677</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.8714548547636</v>
       </c>
       <c r="V43" t="n">
-        <v>143.2925104849749</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>174.7430637258772</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2079.343073798764</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="C2" t="n">
-        <v>1710.380556858352</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="D2" t="n">
-        <v>1352.114858251602</v>
+        <v>1253.251950079336</v>
       </c>
       <c r="E2" t="n">
-        <v>966.3266056533573</v>
+        <v>867.4636974810917</v>
       </c>
       <c r="F2" t="n">
-        <v>555.3407008637498</v>
+        <v>456.4777926914841</v>
       </c>
       <c r="G2" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>137.3768927619367</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9727148150933</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
         <v>351.9727148150933</v>
@@ -4531,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1288.509552617345</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>919.5470356769335</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1675.109392681467</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>693.4114366640424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>693.4114366640424</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>404.2378263186104</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>404.2378263186104</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2661.971466026711</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2661.971466026711</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="W8" t="n">
-        <v>2309.202810756597</v>
+        <v>2369.374921118272</v>
       </c>
       <c r="X8" t="n">
-        <v>2309.202810756597</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.063478780785</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435192</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050021</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064349</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="C10" t="n">
-        <v>680.848097647221</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>530.7314582348853</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>382.8183646524922</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064349</v>
+        <v>470.508724809096</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064349</v>
+        <v>470.508724809096</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064349</v>
+        <v>470.508724809096</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064349</v>
+        <v>249.7161456655658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5027,64 +5029,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404654</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404654</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404654</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404654</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404654</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471132</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974661</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980058</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.08282758574</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557896</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557896</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557896</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557896</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1258.276201424861</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1003.591713218974</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="W13" t="n">
-        <v>714.1745431820131</v>
+        <v>1120.251478401083</v>
       </c>
       <c r="X13" t="n">
-        <v>486.1849922839956</v>
+        <v>892.2619275030652</v>
       </c>
       <c r="Y13" t="n">
-        <v>265.3924131404654</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211724</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011341</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1296.555866665167</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201002</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201002</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201002</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347407</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609654</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550784</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181177</v>
+        <v>1439.304300741325</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201002</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201002</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5525,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5580,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557901</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557901</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557901</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771459</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655725</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286118</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305944</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870642</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916678</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916678</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916678</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916678</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916678</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916678</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916678</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014294</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4633.687647031313</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>4379.003158825426</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W22" t="n">
-        <v>4089.585988788465</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X22" t="n">
-        <v>3861.596437890448</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y22" t="n">
-        <v>3640.803858746918</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6008,25 +6010,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>2525.058920465859</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>2771.824048372323</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916678</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916678</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916678</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916678</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916678</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916678</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916678</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380588</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625199</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636328</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403511</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.16065705448</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843985</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.246603057543</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851656</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814695</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916678</v>
+        <v>1043.139428163128</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916678</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,7 +6214,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.1932370805469</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>4379.003158825422</v>
       </c>
       <c r="W28" t="n">
-        <v>754.8946022306075</v>
+        <v>4089.585988788462</v>
       </c>
       <c r="X28" t="n">
-        <v>754.8946022306075</v>
+        <v>3861.596437890445</v>
       </c>
       <c r="Y28" t="n">
-        <v>754.8946022306075</v>
+        <v>3640.803858746915</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>865.4928396191511</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5566566912443</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>546.4400172789085</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X31" t="n">
-        <v>241.9805482336716</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>1047.141304449391</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6679,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,7 +6703,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,16 +6712,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3569.372800808167</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4212.152432888298</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C34" t="n">
-        <v>4043.216249960391</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>3893.099610548055</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>3745.186516965662</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>3745.186516965662</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>4660.934562929845</v>
+        <v>1034.813397945902</v>
       </c>
       <c r="V34" t="n">
-        <v>4660.934562929845</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="W34" t="n">
-        <v>4660.934562929845</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="X34" t="n">
-        <v>4432.945012031828</v>
+        <v>780.1289097400152</v>
       </c>
       <c r="Y34" t="n">
-        <v>4212.152432888298</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="35">
@@ -6917,52 +6919,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>4075.197584164472</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R36" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S36" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T36" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U36" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W36" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X36" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y36" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>406.8543143225561</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>237.9181313946492</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>237.9181313946492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>237.9181313946492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>237.9181313946492</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333287</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1098.712528333287</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W37" t="n">
-        <v>809.295358296326</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X37" t="n">
-        <v>809.295358296326</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>588.5027791527958</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7169,37 +7171,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201021</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201021</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201021</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>213.9110074201021</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181194</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201021</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201021</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,67 +7396,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="V43" t="n">
-        <v>1354.17636097712</v>
+        <v>681.4373025775499</v>
       </c>
       <c r="W43" t="n">
-        <v>1064.759190940159</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="X43" t="n">
-        <v>836.769640042142</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y43" t="n">
-        <v>615.9770608986119</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,34 +7633,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7667,10 +7669,10 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7724,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
         <v>2123.441607278215</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1484.03077229167</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1194.613602254709</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747064</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>234.4116509503161</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119823</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>306.1147370139963</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>124.3400780863216</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978191</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>73.53204524670076</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>48.00368395687212</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>185.1446614759725</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.90698584635308</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>227.5071482181794</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.34209567542692</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.8953512967686</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>61.34209567542587</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>203.583070194071</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871803</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>193.9589524602029</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>136.4485493056596</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>61.34209567542436</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.61788257244163</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24886,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>75.26883114644289</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>32.23658501241621</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25131,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>24.69631849630036</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>27.19953892835792</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25366,16 +25368,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>90.9670373936882</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>81.65520833407052</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>29.89407122271322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>6.365897543813787</v>
       </c>
       <c r="V43" t="n">
-        <v>108.8451328388531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26074,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>43.84158962621763</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791022.4183502587</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.4183502588</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="H2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="L2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="M2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934478</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="L2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>606095.0425934483</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934485</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768958</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230214</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230221</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230221</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
         <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871665</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-211010.3629549602</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.5162595842</v>
+        <v>378957.516259584</v>
       </c>
       <c r="D6" t="n">
-        <v>378957.5162595842</v>
+        <v>378957.5162595839</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446625</v>
+        <v>-40355.86538446679</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.17109243</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="G6" t="n">
         <v>484804.1710924297</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924294</v>
+        <v>484804.1710924296</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924295</v>
+        <v>484804.1710924296</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998367</v>
+        <v>308380.9518998365</v>
       </c>
       <c r="K6" t="n">
         <v>484804.1710924297</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924298</v>
+        <v>484804.1710924294</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585922</v>
+        <v>350003.1558585921</v>
       </c>
       <c r="N6" t="n">
+        <v>484804.171092429</v>
+      </c>
+      <c r="O6" t="n">
+        <v>484804.1710924297</v>
+      </c>
+      <c r="P6" t="n">
         <v>484804.1710924294</v>
-      </c>
-      <c r="O6" t="n">
-        <v>484804.1710924296</v>
-      </c>
-      <c r="P6" t="n">
-        <v>484804.1710924296</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26740,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.27470725838651</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>69.33174441270474</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.02192683660462</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>318.3952440651861</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>1.5126459144401</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27818,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>177.7751668830508</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>186.6211234951019</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>216.3983187666916</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>232.1499456529671</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>120.4387434050061</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>172.8815284555353</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31938,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789664</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>516.7753531914243</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081101</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951473</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734233</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>555.3724419700205</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>434.7644551367879</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958063</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>383.956422297167</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2734230.909544456</v>
+        <v>2727213.894652746</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>148.3681250208876</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>398.5094627624085</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>33.80998328326091</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>380.4177241578217</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.2570633735995</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>99.66075074687581</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>1.925119512544002</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>95.60231281716786</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>79.25611486829266</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>106.5666749918584</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>66.99298184785548</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051994</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>59.01585011841158</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>152.6276470398224</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.64843562452451</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>22.12658519496617</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>31.75070292883429</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V28" t="n">
-        <v>190.7955476484036</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>132.8160800741275</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>261.541033902277</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>94.16481274941266</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>161.1706059301398</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.17677184786677</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>193.4867670120432</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>279.8714548547636</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.7430637258772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1253.251950079336</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C2" t="n">
-        <v>1253.251950079336</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>1253.251950079336</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>867.4636974810917</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>456.4777926914841</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1639.851790143458</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035243</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>863.1126181035243</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,28 +4667,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>323.3278565882116</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>175.4147630058185</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2369.374921118272</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2369.374921118272</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.7161456655658</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>470.508724809096</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.7161456655658</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>501.8667844229142</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>351.7501450105784</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5232,19 +5232,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V13" t="n">
-        <v>1120.251478401083</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W13" t="n">
-        <v>1120.251478401083</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="X13" t="n">
-        <v>892.2619275030652</v>
+        <v>670.8029673508211</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.2619275030652</v>
+        <v>670.8029673508211</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,37 +5263,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5302,7 +5302,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1439.304300741325</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>266.1532743881928</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,25 +5773,25 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.2349604684848</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684848</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609669</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240062</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X22" t="n">
-        <v>674.2349604684848</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.2349604684848</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.210845262961</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>1075.210845262961</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>1075.210845262961</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>1043.139428163128</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>1043.139428163128</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4379.003158825422</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4089.585988788462</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3861.596437890445</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3640.803858746915</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6481,7 +6481,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1099.417155020476</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.737288300438</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>865.4928396191511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>696.5566566912443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4400172789085</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>1275.130855347408</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>1275.130855347408</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,19 +6682,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>1034.813397945902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>780.1289097400152</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W34" t="n">
-        <v>780.1289097400152</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>780.1289097400152</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,34 +6922,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.2811958984813</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1192.399988319684</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V40" t="n">
-        <v>1244.231782352015</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W40" t="n">
-        <v>1244.231782352015</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X40" t="n">
-        <v>1016.242231453998</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y40" t="n">
-        <v>795.449652310468</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>681.4373025775499</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>681.4373025775499</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0201325405893</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119823</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445216</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445216</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229569</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445216</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>306.1147370139963</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,28 +11378,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>39.86728765471081</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23472,10 +23472,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>185.1446614759725</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,19 +23703,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>227.5071482181794</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.8953512967686</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368785</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>203.583070194071</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>193.9589524602029</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V28" t="n">
-        <v>61.34209567542436</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.61788257244163</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.69631849630036</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>90.9670373936882</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.65520833407052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>28.06079404634605</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>6.365897543813787</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.84158962621763</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791022.4183502591</v>
+        <v>791022.418350259</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="14">
@@ -26316,28 +26316,28 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="F2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934487</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934485</v>
@@ -26346,16 +26346,16 @@
         <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934478</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230232</v>
@@ -26450,7 +26450,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,25 +26478,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-211010.3629549602</v>
       </c>
       <c r="C6" t="n">
-        <v>378957.516259584</v>
+        <v>378957.5162595842</v>
       </c>
       <c r="D6" t="n">
-        <v>378957.5162595839</v>
+        <v>378957.5162595836</v>
       </c>
       <c r="E6" t="n">
-        <v>-40355.86538446679</v>
+        <v>-41330.4566441881</v>
       </c>
       <c r="F6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327082</v>
       </c>
       <c r="G6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327077</v>
       </c>
       <c r="H6" t="n">
-        <v>484804.1710924296</v>
+        <v>483829.5798327079</v>
       </c>
       <c r="I6" t="n">
-        <v>484804.1710924296</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="J6" t="n">
-        <v>308380.9518998365</v>
+        <v>307406.360640115</v>
       </c>
       <c r="K6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.579832708</v>
       </c>
       <c r="L6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="M6" t="n">
-        <v>350003.1558585921</v>
+        <v>349028.5645988707</v>
       </c>
       <c r="N6" t="n">
-        <v>484804.171092429</v>
+        <v>483829.579832708</v>
       </c>
       <c r="O6" t="n">
-        <v>484804.1710924297</v>
+        <v>483829.5798327078</v>
       </c>
       <c r="P6" t="n">
-        <v>484804.1710924294</v>
+        <v>483829.579832708</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26764,7 +26764,7 @@
         <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26773,13 +26773,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>216.9047667501199</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>15.27470725838651</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>191.8996721057762</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5126459144401</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>14.70855841873873</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>186.6211234951019</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>52.55328306226771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>232.1499456529671</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>172.8815284555353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081101</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951473</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541604</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734233</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>555.3724419700205</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>609.76039124675</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2727213.894652746</v>
+        <v>2732153.157501778</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>148.3681250208876</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>307.7676307244759</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="X4" t="n">
-        <v>33.80998328326091</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>120.2570633735995</v>
+        <v>47.14167849255889</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.925119512544002</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>156.058273978505</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>223.149833621077</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>106.5666749918584</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>62.84391799868179</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051994</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.31227899301565</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467005</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>120.2082776889385</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>57.64843562452451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.8952567231525</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>94.16481274941266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
         <v>81.77913505274074</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.4867670120432</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>174.7430637258772</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>96.8420745176935</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>277.7738553281042</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378.1446555862789</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>764.7444956504007</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W4" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4567,10 +4567,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,37 +4658,37 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>323.3278565882116</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>175.4147630058185</v>
+        <v>248.4507863814656</v>
       </c>
       <c r="F7" t="n">
-        <v>175.4147630058185</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="G7" t="n">
-        <v>175.4147630058185</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="H7" t="n">
-        <v>175.4147630058185</v>
+        <v>101.5608388835552</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.204525854037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.204525854037</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2476.569858826099</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="U8" t="n">
-        <v>2476.569858826099</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="V8" t="n">
-        <v>2476.569858826099</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="W8" t="n">
-        <v>2476.569858826099</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5020,37 +5020,37 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,28 +5059,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5126,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>670.8029673508211</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C13" t="n">
-        <v>501.8667844229142</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>351.7501450105784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488384</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488384</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X13" t="n">
-        <v>670.8029673508211</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y13" t="n">
-        <v>670.8029673508211</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1419.812958443745</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1219.892948359297</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5524,10 +5524,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5582,19 +5582,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
         <v>674.428562457161</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5703,7 +5703,7 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
         <v>1090.100879744681</v>
@@ -5718,7 +5718,7 @@
         <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.384017443268</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C22" t="n">
-        <v>155.4478345153611</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150552</v>
+        <v>985.713685310448</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170379</v>
+        <v>757.7241344124307</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735078</v>
+        <v>536.9315552689005</v>
       </c>
     </row>
     <row r="23">
@@ -5968,40 +5968,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,25 +6229,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6548,16 +6548,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954967</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6882,19 +6882,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1192.399988319684</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>903.2713495332425</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>648.5868613273557</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1696912903951</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="41">
@@ -7390,34 +7390,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8299478944155</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>195.0373687508853</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1218.336618711332</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>963.6521305054455</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>39.86728765471081</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>155.740735353413</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>31.65207341077715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>59.62370249299877</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>90.96703739368785</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,13 +24180,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.34209567542487</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>14.45548819888947</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>28.06079404634605</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.98990566424379</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>8.463497070473124</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791022.418350259</v>
+        <v>791022.4183502591</v>
       </c>
     </row>
     <row r="12">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="F2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="G2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="I2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="J2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="K2" t="n">
         <v>606095.0425934488</v>
-      </c>
-      <c r="F2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="H2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="J2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="M2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934485</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934487</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26438,10 +26438,10 @@
         <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-211010.3629549602</v>
+        <v>-211010.3629549606</v>
       </c>
       <c r="C6" t="n">
         <v>378957.5162595842</v>
       </c>
       <c r="D6" t="n">
-        <v>378957.5162595836</v>
+        <v>378957.5162595838</v>
       </c>
       <c r="E6" t="n">
-        <v>-41330.4566441881</v>
+        <v>-40453.32451043883</v>
       </c>
       <c r="F6" t="n">
-        <v>483829.5798327082</v>
+        <v>484706.7119664574</v>
       </c>
       <c r="G6" t="n">
-        <v>483829.5798327077</v>
+        <v>484706.711966457</v>
       </c>
       <c r="H6" t="n">
-        <v>483829.5798327079</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="I6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="J6" t="n">
-        <v>307406.360640115</v>
+        <v>308283.4927738642</v>
       </c>
       <c r="K6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664576</v>
       </c>
       <c r="L6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664573</v>
       </c>
       <c r="M6" t="n">
-        <v>349028.5645988707</v>
+        <v>349905.6967326203</v>
       </c>
       <c r="N6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="O6" t="n">
-        <v>483829.5798327078</v>
+        <v>484706.7119664575</v>
       </c>
       <c r="P6" t="n">
-        <v>483829.579832708</v>
+        <v>484706.7119664575</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26758,10 +26758,10 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>216.9047667501199</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>99.10841501723559</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="X4" t="n">
-        <v>191.8996721057762</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>14.70855841873873</v>
+        <v>87.82394329977933</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>52.55328306226771</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.39004637915284</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551404</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36916,7 +36916,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
